--- a/data/trans_bre/P1435_2011_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1435_2011_2023-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.136211059173533</v>
+        <v>2.133861959209109</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.279056280473775</v>
+        <v>6.289822083893562</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>2.041009179603054</v>
+        <v>1.945497881112113</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.775024038129034</v>
+        <v>1.74253489694554</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.577365403612744</v>
+        <v>4.376755723271156</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.19454178261789</v>
+        <v>10.46397537071644</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19.77032502033321</v>
+        <v>18.74926249964961</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6.876642369539524</v>
+        <v>6.541377420573526</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.260996945416984</v>
+        <v>2.247850973863467</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.838975311046995</v>
+        <v>5.866018890134191</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>4.837222400004602</v>
+        <v>4.864750999360865</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.709513828116146</v>
+        <v>2.969705587733066</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.12715717101206</v>
+        <v>4.179358134964637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.1664746917897</v>
+        <v>8.206952043480916</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>37.68214162551935</v>
+        <v>37.30026098513407</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.948992685243433</v>
+        <v>8.241378121216224</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         <v>3.555911352580809</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.411274416054915</v>
+        <v>6.411274416054916</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>16.33570149274641</v>
@@ -737,14 +737,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.890836328168952</v>
+        <v>1.916633125255982</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.516203150204108</v>
+        <v>4.591660145170732</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>1.43837174506898</v>
+        <v>1.642072111718921</v>
       </c>
     </row>
     <row r="12">
@@ -755,14 +755,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.867914672834063</v>
+        <v>6.019081005477115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.320128249798127</v>
+        <v>8.487585609036099</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>6.705908368781086</v>
+        <v>6.777376237859523</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>3.244171839238023</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.217234496061406</v>
+        <v>7.217234496061405</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>10.07266621793917</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>4.261625250403021</v>
+        <v>4.261625250403019</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.66957548250901</v>
+        <v>2.594989109650433</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.275275674212528</v>
+        <v>6.388238198034722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5.107672252961702</v>
+        <v>5.036852752986381</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2.950330061701508</v>
+        <v>3.009901041561099</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.927626104011616</v>
+        <v>3.940320554453506</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.110180806152325</v>
+        <v>8.232571389099494</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19.69005439145647</v>
+        <v>20.38882380093552</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6.01802972825992</v>
+        <v>6.148390670619205</v>
       </c>
     </row>
     <row r="16">
